--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Itgb6.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Itgb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H2">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.08979185275661</v>
+        <v>0.3530253333333334</v>
       </c>
       <c r="N2">
-        <v>2.08979185275661</v>
+        <v>1.059076</v>
       </c>
       <c r="O2">
-        <v>0.6782817627547799</v>
+        <v>0.05211323950342944</v>
       </c>
       <c r="P2">
-        <v>0.6782817627547799</v>
+        <v>0.05211323950342944</v>
       </c>
       <c r="Q2">
-        <v>34.29832122498833</v>
+        <v>7.044896827827556</v>
       </c>
       <c r="R2">
-        <v>34.29832122498833</v>
+        <v>63.40407145044801</v>
       </c>
       <c r="S2">
-        <v>0.006614457781199119</v>
+        <v>0.0006116709129917864</v>
       </c>
       <c r="T2">
-        <v>0.006614457781199119</v>
+        <v>0.0006116709129917864</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H3">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I3">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J3">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9912166123230201</v>
+        <v>2.310677666666666</v>
       </c>
       <c r="N3">
-        <v>0.9912166123230201</v>
+        <v>6.932033</v>
       </c>
       <c r="O3">
-        <v>0.3217182372452201</v>
+        <v>0.3410998794937062</v>
       </c>
       <c r="P3">
-        <v>0.3217182372452201</v>
+        <v>0.3410998794937063</v>
       </c>
       <c r="Q3">
-        <v>16.26815882555705</v>
+        <v>46.11138132872044</v>
       </c>
       <c r="R3">
-        <v>16.26815882555705</v>
+        <v>415.002431958484</v>
       </c>
       <c r="S3">
-        <v>0.003137327014451435</v>
+        <v>0.004003605930074132</v>
       </c>
       <c r="T3">
-        <v>0.003137327014451435</v>
+        <v>0.004003605930074133</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1628.01314247892</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H4">
-        <v>1628.01314247892</v>
+        <v>59.867348</v>
       </c>
       <c r="I4">
-        <v>0.9673244906791579</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J4">
-        <v>0.9673244906791579</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.08979185275661</v>
+        <v>0.07663533333333333</v>
       </c>
       <c r="N4">
-        <v>2.08979185275661</v>
+        <v>0.229906</v>
       </c>
       <c r="O4">
-        <v>0.6782817627547799</v>
+        <v>0.01131282971314188</v>
       </c>
       <c r="P4">
-        <v>0.6782817627547799</v>
+        <v>0.01131282971314188</v>
       </c>
       <c r="Q4">
-        <v>3402.208601333133</v>
+        <v>1.529318056587556</v>
       </c>
       <c r="R4">
-        <v>3402.208601333133</v>
+        <v>13.763862509288</v>
       </c>
       <c r="S4">
-        <v>0.6561185606937289</v>
+        <v>0.0001327825509427932</v>
       </c>
       <c r="T4">
-        <v>0.6561185606937289</v>
+        <v>0.0001327825509427932</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1628.01314247892</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H5">
-        <v>1628.01314247892</v>
+        <v>59.867348</v>
       </c>
       <c r="I5">
-        <v>0.9673244906791579</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J5">
-        <v>0.9673244906791579</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9912166123230201</v>
+        <v>4.033858333333334</v>
       </c>
       <c r="N5">
-        <v>0.9912166123230201</v>
+        <v>12.101575</v>
       </c>
       <c r="O5">
-        <v>0.3217182372452201</v>
+        <v>0.5954740512897225</v>
       </c>
       <c r="P5">
-        <v>0.3217182372452201</v>
+        <v>0.5954740512897225</v>
       </c>
       <c r="Q5">
-        <v>1613.713671905309</v>
+        <v>80.49880020812223</v>
       </c>
       <c r="R5">
-        <v>1613.713671905309</v>
+        <v>724.4892018731</v>
       </c>
       <c r="S5">
-        <v>0.3112059299854291</v>
+        <v>0.006989282571683787</v>
       </c>
       <c r="T5">
-        <v>0.3112059299854291</v>
+        <v>0.006989282571683787</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.2701060874532</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H6">
-        <v>13.2701060874532</v>
+        <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.007884763505507309</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J6">
-        <v>0.007884763505507309</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.08979185275661</v>
+        <v>0.3530253333333334</v>
       </c>
       <c r="N6">
-        <v>2.08979185275661</v>
+        <v>1.059076</v>
       </c>
       <c r="O6">
-        <v>0.6782817627547799</v>
+        <v>0.05211323950342944</v>
       </c>
       <c r="P6">
-        <v>0.6782817627547799</v>
+        <v>0.05211323950342944</v>
       </c>
       <c r="Q6">
-        <v>27.7317595867756</v>
+        <v>578.0236795613645</v>
       </c>
       <c r="R6">
-        <v>27.7317595867756</v>
+        <v>5202.21311605228</v>
       </c>
       <c r="S6">
-        <v>0.005348091289420056</v>
+        <v>0.05018672103352852</v>
       </c>
       <c r="T6">
-        <v>0.005348091289420056</v>
+        <v>0.05018672103352852</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.2701060874532</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H7">
-        <v>13.2701060874532</v>
+        <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.007884763505507309</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J7">
-        <v>0.007884763505507309</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9912166123230201</v>
+        <v>2.310677666666666</v>
       </c>
       <c r="N7">
-        <v>0.9912166123230201</v>
+        <v>6.932033</v>
       </c>
       <c r="O7">
-        <v>0.3217182372452201</v>
+        <v>0.3410998794937062</v>
       </c>
       <c r="P7">
-        <v>0.3217182372452201</v>
+        <v>0.3410998794937063</v>
       </c>
       <c r="Q7">
-        <v>13.15354960117245</v>
+        <v>3783.372696105665</v>
       </c>
       <c r="R7">
-        <v>13.15354960117245</v>
+        <v>34050.35426495099</v>
       </c>
       <c r="S7">
-        <v>0.002536672216087254</v>
+        <v>0.3284901238119018</v>
       </c>
       <c r="T7">
-        <v>0.002536672216087254</v>
+        <v>0.3284901238119019</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.3106650614045</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H8">
-        <v>25.3106650614045</v>
+        <v>4912.03003</v>
       </c>
       <c r="I8">
-        <v>0.01503896101968408</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J8">
-        <v>0.01503896101968408</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.08979185275661</v>
+        <v>0.07663533333333333</v>
       </c>
       <c r="N8">
-        <v>2.08979185275661</v>
+        <v>0.229906</v>
       </c>
       <c r="O8">
-        <v>0.6782817627547799</v>
+        <v>0.01131282971314188</v>
       </c>
       <c r="P8">
-        <v>0.6782817627547799</v>
+        <v>0.01131282971314188</v>
       </c>
       <c r="Q8">
-        <v>52.89402163317451</v>
+        <v>125.4783528974644</v>
       </c>
       <c r="R8">
-        <v>52.89402163317451</v>
+        <v>1129.30517607718</v>
       </c>
       <c r="S8">
-        <v>0.01020065299043174</v>
+        <v>0.01089461784228366</v>
       </c>
       <c r="T8">
-        <v>0.01020065299043174</v>
+        <v>0.01089461784228366</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>25.3106650614045</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H9">
-        <v>25.3106650614045</v>
+        <v>4912.03003</v>
       </c>
       <c r="I9">
-        <v>0.01503896101968408</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J9">
-        <v>0.01503896101968408</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9912166123230201</v>
+        <v>4.033858333333334</v>
       </c>
       <c r="N9">
-        <v>0.9912166123230201</v>
+        <v>12.101575</v>
       </c>
       <c r="O9">
-        <v>0.3217182372452201</v>
+        <v>0.5954740512897225</v>
       </c>
       <c r="P9">
-        <v>0.3217182372452201</v>
+        <v>0.5954740512897225</v>
       </c>
       <c r="Q9">
-        <v>25.08835167780799</v>
+        <v>6604.811090033028</v>
       </c>
       <c r="R9">
-        <v>25.08835167780799</v>
+        <v>59443.29981029725</v>
       </c>
       <c r="S9">
-        <v>0.004838308029252341</v>
+        <v>0.5734606096175562</v>
       </c>
       <c r="T9">
-        <v>0.004838308029252341</v>
+        <v>0.5734606096175563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>17.50081933333334</v>
+      </c>
+      <c r="H10">
+        <v>52.502458</v>
+      </c>
+      <c r="I10">
+        <v>0.01029341242216722</v>
+      </c>
+      <c r="J10">
+        <v>0.01029341242216722</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.3530253333333334</v>
+      </c>
+      <c r="N10">
+        <v>1.059076</v>
+      </c>
+      <c r="O10">
+        <v>0.05211323950342944</v>
+      </c>
+      <c r="P10">
+        <v>0.05211323950342944</v>
+      </c>
+      <c r="Q10">
+        <v>6.178232578756446</v>
+      </c>
+      <c r="R10">
+        <v>55.60409320880801</v>
+      </c>
+      <c r="S10">
+        <v>0.0005364230668639759</v>
+      </c>
+      <c r="T10">
+        <v>0.0005364230668639761</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>17.50081933333334</v>
+      </c>
+      <c r="H11">
+        <v>52.502458</v>
+      </c>
+      <c r="I11">
+        <v>0.01029341242216722</v>
+      </c>
+      <c r="J11">
+        <v>0.01029341242216722</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.310677666666666</v>
+      </c>
+      <c r="N11">
+        <v>6.932033</v>
+      </c>
+      <c r="O11">
+        <v>0.3410998794937062</v>
+      </c>
+      <c r="P11">
+        <v>0.3410998794937063</v>
+      </c>
+      <c r="Q11">
+        <v>40.43875238190156</v>
+      </c>
+      <c r="R11">
+        <v>363.948771437114</v>
+      </c>
+      <c r="S11">
+        <v>0.003511081736780257</v>
+      </c>
+      <c r="T11">
+        <v>0.003511081736780258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>17.50081933333334</v>
+      </c>
+      <c r="H12">
+        <v>52.502458</v>
+      </c>
+      <c r="I12">
+        <v>0.01029341242216722</v>
+      </c>
+      <c r="J12">
+        <v>0.01029341242216722</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.07663533333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.229906</v>
+      </c>
+      <c r="O12">
+        <v>0.01131282971314188</v>
+      </c>
+      <c r="P12">
+        <v>0.01131282971314188</v>
+      </c>
+      <c r="Q12">
+        <v>1.341181123216445</v>
+      </c>
+      <c r="R12">
+        <v>12.070630108948</v>
+      </c>
+      <c r="S12">
+        <v>0.000116447621899117</v>
+      </c>
+      <c r="T12">
+        <v>0.000116447621899117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>17.50081933333334</v>
+      </c>
+      <c r="H13">
+        <v>52.502458</v>
+      </c>
+      <c r="I13">
+        <v>0.01029341242216722</v>
+      </c>
+      <c r="J13">
+        <v>0.01029341242216722</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.033858333333334</v>
+      </c>
+      <c r="N13">
+        <v>12.101575</v>
+      </c>
+      <c r="O13">
+        <v>0.5954740512897225</v>
+      </c>
+      <c r="P13">
+        <v>0.5954740512897225</v>
+      </c>
+      <c r="Q13">
+        <v>70.59582590792779</v>
+      </c>
+      <c r="R13">
+        <v>635.3624331713501</v>
+      </c>
+      <c r="S13">
+        <v>0.006129459996623869</v>
+      </c>
+      <c r="T13">
+        <v>0.00612945999662387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>25.39612333333333</v>
+      </c>
+      <c r="H14">
+        <v>76.18836999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="J14">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3530253333333334</v>
+      </c>
+      <c r="N14">
+        <v>1.059076</v>
+      </c>
+      <c r="O14">
+        <v>0.05211323950342944</v>
+      </c>
+      <c r="P14">
+        <v>0.05211323950342944</v>
+      </c>
+      <c r="Q14">
+        <v>8.965474905124445</v>
+      </c>
+      <c r="R14">
+        <v>80.68927414612</v>
+      </c>
+      <c r="S14">
+        <v>0.0007784244900451581</v>
+      </c>
+      <c r="T14">
+        <v>0.0007784244900451582</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>25.39612333333333</v>
+      </c>
+      <c r="H15">
+        <v>76.18836999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="J15">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.310677666666666</v>
+      </c>
+      <c r="N15">
+        <v>6.932033</v>
+      </c>
+      <c r="O15">
+        <v>0.3410998794937062</v>
+      </c>
+      <c r="P15">
+        <v>0.3410998794937063</v>
+      </c>
+      <c r="Q15">
+        <v>58.68225500624555</v>
+      </c>
+      <c r="R15">
+        <v>528.1402950562099</v>
+      </c>
+      <c r="S15">
+        <v>0.00509506801495002</v>
+      </c>
+      <c r="T15">
+        <v>0.005095068014950021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>25.39612333333333</v>
+      </c>
+      <c r="H16">
+        <v>76.18836999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="J16">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.07663533333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.229906</v>
+      </c>
+      <c r="O16">
+        <v>0.01131282971314188</v>
+      </c>
+      <c r="P16">
+        <v>0.01131282971314188</v>
+      </c>
+      <c r="Q16">
+        <v>1.946240377024444</v>
+      </c>
+      <c r="R16">
+        <v>17.51616339322</v>
+      </c>
+      <c r="S16">
+        <v>0.0001689816980163106</v>
+      </c>
+      <c r="T16">
+        <v>0.0001689816980163106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>25.39612333333333</v>
+      </c>
+      <c r="H17">
+        <v>76.18836999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="J17">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.033858333333334</v>
+      </c>
+      <c r="N17">
+        <v>12.101575</v>
+      </c>
+      <c r="O17">
+        <v>0.5954740512897225</v>
+      </c>
+      <c r="P17">
+        <v>0.5954740512897225</v>
+      </c>
+      <c r="Q17">
+        <v>102.4443637425278</v>
+      </c>
+      <c r="R17">
+        <v>921.99927368275</v>
+      </c>
+      <c r="S17">
+        <v>0.008894699103858681</v>
+      </c>
+      <c r="T17">
+        <v>0.008894699103858681</v>
       </c>
     </row>
   </sheetData>
